--- a/BORIS/Bout Duration/Number of bouts.xlsx
+++ b/BORIS/Bout Duration/Number of bouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gotanda Lab PC2\Documents\GitHub\Alex-Popescu-Thesis-2023\BORIS\Bout Duration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF4E7AA-5591-4252-A6E6-5F00B1E8FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5C0B39-BD84-4984-BBA8-AC348AFB8A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synthetic time budget" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -250,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +562,7 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -979,99 +985,100 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4"/>
       <c r="AG5" s="1">
         <f t="shared" ref="AG5:AG28" si="0">SUM(B5:AE5)</f>
         <v>69</v>
@@ -1498,99 +1505,100 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>54</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>61</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>23</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4"/>
       <c r="AG10" s="1">
         <f t="shared" si="0"/>
         <v>206</v>
@@ -1915,99 +1923,100 @@
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>102</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>109</v>
       </c>
       <c r="D14" s="1">
         <v>33</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>26</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4"/>
       <c r="AG14" s="1">
         <f t="shared" si="0"/>
         <v>290</v>
@@ -2230,7 +2239,7 @@
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1">
@@ -2242,87 +2251,88 @@
       <c r="D17" s="1">
         <v>28</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>26</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>18</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4"/>
       <c r="AG17" s="1">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -2449,7 +2459,7 @@
       <c r="B19">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>29</v>
       </c>
       <c r="D19">
@@ -2464,31 +2474,31 @@
       <c r="G19" s="1">
         <v>31</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>49</v>
       </c>
       <c r="I19" s="2">
         <v>57</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>21</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>29</v>
       </c>
       <c r="L19" s="1">
         <v>39</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>19</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>25</v>
       </c>
       <c r="O19" s="1">
         <v>47</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>40</v>
       </c>
       <c r="Q19" s="1">
@@ -2497,45 +2507,46 @@
       <c r="R19" s="1">
         <v>53</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>26</v>
       </c>
       <c r="T19" s="1">
         <v>22</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="4">
         <v>23</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="4">
         <v>6</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4"/>
       <c r="AG19" s="1">
         <f t="shared" si="0"/>
         <v>647</v>
@@ -2657,99 +2668,100 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>40</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>29</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>36</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>12</v>
       </c>
       <c r="H21" s="1">
         <v>40</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>47</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>27</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>18</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>17</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>10</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>6</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>16</v>
       </c>
-      <c r="P21">
-        <v>14</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+      <c r="P21" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
         <v>1</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="4">
         <v>115</v>
       </c>
       <c r="U21" s="2">
         <v>139</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="4">
         <v>63</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
       <c r="AG21" s="1">
         <f t="shared" si="0"/>
         <v>689</v>
@@ -3080,7 +3092,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="2">
@@ -3092,87 +3104,88 @@
       <c r="D25" s="4">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>55</v>
       </c>
       <c r="F25" s="2">
         <v>60</v>
       </c>
-      <c r="G25">
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
+      <c r="G25" s="4">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="4"/>
       <c r="AG25" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -3515,6 +3528,10 @@
       <c r="AG30">
         <f>SUM(AG4:AG28)</f>
         <v>5113</v>
+      </c>
+      <c r="AH30">
+        <f>SUM(AH4:AH28)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.35">
